--- a/i_codebooks/D3_flares_ImmDis.xlsx
+++ b/i_codebooks/D3_flares_ImmDis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -197,12 +197,6 @@
     <t>D3_flares_{ImmDis}</t>
   </si>
   <si>
-    <t>Persons that enter the follow up in the cohort of {ImmDis}, with all their flares</t>
-  </si>
-  <si>
-    <t>as many as the flares the person is experiencing during follow up</t>
-  </si>
-  <si>
     <t>person_id date_flare_{ImmDis}</t>
   </si>
   <si>
@@ -212,7 +206,13 @@
     <t>date of a flare of {ImmDis}</t>
   </si>
   <si>
-    <t>retrieve all distinct person_id date_flare_{ImmDis} from D3_components_flare_TD_{ImmDis}</t>
+    <t>Persons that enter the follow up in the cohort of {ImmDis}, with all their flares happened after entrance in the cohort (including before starting followup)</t>
+  </si>
+  <si>
+    <t>as many as the flares the person is experiencing after entering the cohort</t>
+  </si>
+  <si>
+    <t>retrieve all distinct pairs (person_id date_flare) from D3_components_flare_TD_{ImmDis}, after removing record whose date_flare is missing</t>
   </si>
 </sst>
 </file>
@@ -624,7 +624,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,12 +649,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +678,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -723,11 +723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>40</v>
@@ -1014,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1040,7 +1040,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
